--- a/doc/gantt.xlsx
+++ b/doc/gantt.xlsx
@@ -178,8 +178,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -213,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -293,6 +293,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -352,7 +359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,7 +456,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -457,7 +476,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,7 +492,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,15 +508,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,7 +588,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -585,10 +608,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
@@ -850,9 +873,9 @@
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
       <c r="N8" s="9"/>
@@ -910,11 +933,11 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="9"/>
       <c r="M10" s="11"/>
       <c r="N10" s="9"/>
@@ -942,11 +965,10 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="11"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -958,29 +980,29 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="n">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="n">
         <v>5</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1001,17 +1023,17 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="11"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1035,24 +1057,24 @@
       <c r="I14" s="10"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="30"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31" t="n">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="n">
         <v>5</v>
       </c>
       <c r="E15" s="9"/>
@@ -1064,12 +1086,12 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1095,12 +1117,12 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="30"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="31" t="s">
+      <c r="S16" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1127,11 +1149,11 @@
       <c r="L17" s="9"/>
       <c r="M17" s="11"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="31" t="s">
+      <c r="S17" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1148,21 +1170,21 @@
       <c r="D18" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1180,11 +1202,16 @@
         <v>14</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R20" s="40"/>
+    </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G23" s="36"/>
-      <c r="T23" s="37"/>
+      <c r="G23" s="40"/>
+      <c r="T23" s="41"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K24" s="40"/>
+    </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/doc/gantt.xlsx
+++ b/doc/gantt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t xml:space="preserve">Tarea</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">Procesamiento de texto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armado de Indicadores</t>
   </si>
   <si>
     <t xml:space="preserve">Modelado </t>
@@ -157,7 +154,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,20 +187,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFF10D0C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
         <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF10D0C"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -212,8 +197,14 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -292,20 +283,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin"/>
@@ -359,7 +336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,15 +421,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -472,59 +449,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,13 +510,13 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -605,13 +574,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="topLeft" activeCell="V17" activeCellId="0" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
@@ -867,7 +836,7 @@
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="21"/>
@@ -895,7 +864,7 @@
         <v>44846</v>
       </c>
       <c r="C9" s="14" t="n">
-        <v>44847</v>
+        <v>44853</v>
       </c>
       <c r="D9" s="13" t="n">
         <v>2</v>
@@ -923,13 +892,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="C10" s="14" t="n">
-        <v>44848</v>
+        <v>44853</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -950,60 +919,61 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14" t="n">
-        <v>44851</v>
-      </c>
-      <c r="C11" s="14" t="n">
-        <v>44851</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>1</v>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="n">
+        <v>5</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="9"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="11"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="20" t="s">
-        <v>15</v>
+      <c r="S11" s="28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31" t="n">
-        <v>5</v>
+      <c r="A12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="14" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>44854</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="31" t="s">
-        <v>20</v>
+      <c r="S12" s="28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1011,44 +981,40 @@
         <v>21</v>
       </c>
       <c r="B13" s="14" t="n">
-        <v>44851</v>
+        <v>44854</v>
       </c>
       <c r="C13" s="14" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="D13" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="31" t="s">
-        <v>20</v>
+      <c r="S13" s="28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="14" t="n">
-        <v>44854</v>
-      </c>
-      <c r="C14" s="14" t="n">
-        <v>44855</v>
-      </c>
-      <c r="D14" s="13" t="n">
-        <v>2</v>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="n">
+        <v>5</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1057,25 +1023,29 @@
       <c r="I14" s="10"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="31" t="s">
-        <v>20</v>
+      <c r="L14" s="9"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="30" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="n">
-        <v>5</v>
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>44858</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>44859</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1086,13 +1056,13 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="32"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35" t="s">
-        <v>24</v>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="30" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1100,13 +1070,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="14" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="C16" s="14" t="n">
         <v>44859</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1117,13 +1087,13 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="32"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="34"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="35" t="s">
-        <v>24</v>
+      <c r="S16" s="30" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1131,86 +1101,57 @@
         <v>26</v>
       </c>
       <c r="B17" s="14" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="C17" s="14" t="n">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="35" t="s">
-        <v>24</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="V17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="14" t="n">
-        <v>44860</v>
+        <v>44845</v>
       </c>
       <c r="C18" s="14" t="n">
         <v>44862</v>
       </c>
       <c r="D18" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="14" t="n">
-        <v>44845</v>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v>44862</v>
-      </c>
-      <c r="D19" s="13" t="n">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R20" s="40"/>
+      <c r="R20" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G23" s="40"/>
-      <c r="T23" s="41"/>
+      <c r="G23" s="39"/>
+      <c r="T23" s="38"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K24" s="40"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2200,8 +2141,8 @@
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
